--- a/textToOps/data/input/train_test_raw.xlsx
+++ b/textToOps/data/input/train_test_raw.xlsx
@@ -566,19 +566,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -624,19 +624,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>year_of_construction=*</t>
+          <t>tourism=hotel, stars=*</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -682,23 +682,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What is the population for each city in Aichi prefecture in Japan</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aichi prefecture</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -744,19 +740,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>How many luxury hotels are in Happy Valley ski resort</t>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>tourism=hotel, stars=*</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -856,19 +852,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tag:landuse=forestry</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -914,16 +910,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -972,25 +972,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What is the total population for each census block in Tarrant County, Texas</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>done</t>
@@ -998,7 +990,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1038,17 +1030,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>done</t>
@@ -1096,17 +1092,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What is the total population for each census block in Tarrant County, Texas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1114,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1212,20 +1216,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What is the tornado path in Oleander in April 2011</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>April 2011</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
@@ -1274,15 +1274,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
@@ -1332,17 +1336,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1390,21 +1398,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>done</t>
@@ -1452,21 +1456,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>done</t>
@@ -1514,21 +1518,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>done</t>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1866,19 +1866,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1912,11 +1912,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>각자 buffer를 union 해야하네</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
@@ -1936,21 +1932,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>leisure=amusement_arcade</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>done</t>
@@ -2002,19 +1994,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are within 100 meters of the hospitals in Oleander</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2048,7 +2040,11 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>각자 buffer를 union 해야하네</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
@@ -2068,23 +2064,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2138,19 +2130,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2204,19 +2196,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2270,19 +2266,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>shop=*</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2316,7 +2312,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Shop이 너무나 많다</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
@@ -2336,19 +2336,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2448,11 +2448,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>major가 무엇인지</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
@@ -2472,7 +2468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2484,7 +2480,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2538,19 +2534,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Salford</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2584,11 +2584,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>정확히 카메라가 무엇을 뜻하는가</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
@@ -2608,19 +2604,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>amenity=school, amenity=kindergarten</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2674,19 +2670,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2740,19 +2736,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2806,19 +2802,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2852,7 +2848,11 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>정확히 카메라가 무엇을 뜻하는가</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
@@ -2872,23 +2872,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2922,7 +2918,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>major가 무엇인지</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
@@ -2942,12 +2942,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
+          <t>What is the density surface of crape myrtles in Oleander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What is the density surface of crape myrtles in Oleander</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the US</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -3066,20 +3066,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
@@ -3198,7 +3194,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3264,7 +3260,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3330,19 +3326,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3357,7 +3353,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3396,7 +3392,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3466,17 +3462,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>highway=street_lamp</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>done</t>
@@ -3528,19 +3528,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>Which land use contains meteorological stations in Netherlands</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3574,11 +3574,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
@@ -3598,21 +3594,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>highway=street_lamp</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>done</t>
@@ -3734,7 +3726,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3874,19 +3866,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3919,7 +3911,11 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
@@ -3940,7 +3936,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4010,12 +4006,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -4072,7 +4068,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4134,16 +4130,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
@@ -4196,19 +4196,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>landuse=commercial</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4262,19 +4266,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4308,7 +4312,11 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Vegetation 애매함. OSM만으로 불가.</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
@@ -4328,23 +4336,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4398,19 +4402,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4444,11 +4448,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Vegetation 애매함. OSM만으로 불가.</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
@@ -4468,17 +4468,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4530,21 +4534,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4596,21 +4596,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>done</t>
@@ -4618,20 +4614,24 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4642,19 +4642,15 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
-        </is>
-      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="b">
         <v>1</v>
@@ -4666,7 +4662,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4740,15 +4736,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -4786,7 +4786,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
@@ -4806,17 +4810,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>highway=motorway, building=house</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4824,22 +4832,22 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4856,11 +4864,11 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z68" t="b">
         <v>1</v>
@@ -4872,19 +4880,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4899,7 +4907,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4942,7 +4950,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4954,7 +4962,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5012,7 +5020,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5024,7 +5032,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5082,21 +5090,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What is the number of crime cases for each police district in Texas in 2018</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>done</t>
@@ -5104,12 +5112,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5136,11 +5144,11 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z72" t="b">
         <v>1</v>
@@ -5152,20 +5160,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What is the number of crime cases for each police district in Texas in 2018</t>
+          <t>What is the number of election votes for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
@@ -5222,12 +5226,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What is the number of households for each precinct in Dallas County</t>
+          <t>What is the number of high school students for each senior high school district in Oleander</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dallas County</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5288,19 +5292,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>What is the number of households for each precinct in Dallas County</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
+          <t>Dallas County</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5376,17 +5376,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5408,11 +5408,11 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z76" t="b">
         <v>1</v>
@@ -5424,20 +5424,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
@@ -5494,16 +5494,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
@@ -5512,7 +5516,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5522,7 +5526,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5560,7 +5564,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5630,19 +5634,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the point density of fire calls in Oleander</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
@@ -5657,17 +5657,17 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -5684,11 +5684,11 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z80" t="b">
         <v>1</v>
@@ -5700,16 +5700,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
+          <t>What is the mean center of crimes in Amsterdam in 2019</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
@@ -5766,21 +5770,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes in Amsterdam in 2019</t>
+          <t>What is the total area of agriculture in Netherlands</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>agriculture=*, landuse=argiculture</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>done</t>
@@ -5788,22 +5792,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -5820,11 +5824,11 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z82" t="b">
         <v>1</v>
@@ -5836,17 +5840,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>What areas do have population density less than 300 per square kilometer in UK</t>
+          <t>What is the point density of trees in parks in Oleander</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>natural=tree</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5864,7 +5872,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5902,19 +5910,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>What is the point density of trees in parks in Oleander</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>natural=tree</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5924,25 +5932,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -5956,11 +5968,11 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Z84" t="b">
         <v>1</v>
@@ -5972,7 +5984,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5984,7 +5996,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6046,7 +6058,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6058,7 +6070,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6120,19 +6132,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6142,27 +6154,27 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -6178,11 +6190,11 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="b">
         <v>1</v>
@@ -6194,23 +6206,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6272,21 +6280,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>shop=florist</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>done</t>
@@ -6294,22 +6298,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6330,11 +6334,11 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y89" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z89" t="b">
         <v>1</v>
@@ -6346,7 +6350,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6416,7 +6420,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6426,7 +6430,11 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>done</t>
@@ -6434,7 +6442,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6470,11 +6478,11 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z91" t="b">
         <v>1</v>
@@ -6486,21 +6494,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>done</t>
@@ -6560,7 +6564,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6630,7 +6634,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6700,19 +6704,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6722,22 +6726,22 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6745,7 +6749,11 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
@@ -6758,11 +6766,11 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z95" t="b">
         <v>1</v>
@@ -6774,12 +6782,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -6926,21 +6934,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>done</t>
@@ -6973,7 +6977,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -7004,19 +7008,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>building=*, highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7051,7 +7055,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -7082,21 +7086,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -7114,25 +7114,29 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
@@ -7140,15 +7144,19 @@
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z100" t="b">
         <v>1</v>
@@ -7160,7 +7168,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -7242,7 +7250,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -7252,11 +7260,7 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>done</t>
@@ -7304,7 +7308,11 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
@@ -7324,12 +7332,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -7347,22 +7355,22 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7370,11 +7378,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
@@ -7382,22 +7386,18 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -7429,29 +7429,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -7464,11 +7452,11 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Z104" t="b">
         <v>0</v>
@@ -7480,17 +7468,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>done</t>
@@ -7508,24 +7500,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
@@ -7538,11 +7518,11 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="Z105" t="b">
         <v>0</v>
@@ -7554,12 +7534,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -7580,11 +7560,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -7600,11 +7576,11 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z106" t="b">
         <v>0</v>
@@ -7616,25 +7592,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>amenity=doctor</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>done</t>
@@ -7647,14 +7615,10 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -7670,11 +7634,11 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z107" t="b">
         <v>0</v>
@@ -7686,21 +7650,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>waterway=river</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>done</t>
@@ -7713,14 +7673,10 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7736,11 +7692,11 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z108" t="b">
         <v>0</v>
@@ -7752,19 +7708,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>amenity=school, amenity=kindergarten</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7777,16 +7733,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -7802,11 +7750,11 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -7818,17 +7766,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>done</t>
@@ -7880,7 +7832,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7890,7 +7842,11 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>done</t>
@@ -7903,10 +7859,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -7922,11 +7882,11 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z111" t="b">
         <v>0</v>
@@ -7938,7 +7898,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>What areas are not classified as flood plain in Houston</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7948,7 +7908,11 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>leisure=nature_reserve</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>done</t>
@@ -7961,10 +7925,14 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -7980,11 +7948,11 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z112" t="b">
         <v>0</v>
@@ -7996,17 +7964,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>residential=*</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>done</t>
@@ -8019,10 +7991,14 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -8038,11 +8014,11 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z113" t="b">
         <v>0</v>
@@ -8054,19 +8030,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8079,8 +8055,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -8096,11 +8080,11 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z114" t="b">
         <v>0</v>
@@ -8112,19 +8096,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8137,8 +8121,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -8154,11 +8146,11 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z115" t="b">
         <v>0</v>
@@ -8170,7 +8162,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -8182,7 +8174,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8236,19 +8228,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8302,19 +8294,23 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are within 1000 meters of roads in Assam in India</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8348,7 +8344,11 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>matter of scale. 도로는 line인가</t>
+        </is>
+      </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of roads in Assam in India</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Kochi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8384,7 +8384,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8399,16 +8399,24 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -8418,19 +8426,15 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>matter of scale. 도로는 line인가</t>
-        </is>
-      </c>
+      <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="Z119" t="b">
         <v>0</v>
@@ -8442,7 +8446,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8454,7 +8458,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8590,7 +8594,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -8672,17 +8676,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>aeroway=runway</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>done</t>
@@ -8695,34 +8703,18 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
@@ -8730,19 +8722,15 @@
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="Z123" t="b">
         <v>0</v>
@@ -8754,19 +8742,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8894,19 +8882,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8960,7 +8948,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -8970,11 +8958,7 @@
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>done</t>
@@ -8982,20 +8966,24 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
@@ -9010,11 +8998,11 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Z127" t="b">
         <v>0</v>
@@ -9026,19 +9014,23 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9072,11 +9064,7 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>Shop이 너무나 많다</t>
-        </is>
-      </c>
+      <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr">
         <is>
@@ -9096,21 +9084,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>railway=tram_stop, light_rail</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>done</t>
@@ -9118,20 +9106,24 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
@@ -9142,15 +9134,19 @@
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Z129" t="b">
         <v>0</v>
@@ -9162,19 +9158,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
@@ -9184,25 +9176,29 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -9212,19 +9208,15 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Z130" t="b">
         <v>0</v>
@@ -9236,19 +9228,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
@@ -9258,22 +9246,22 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
           <t>Data editing</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
@@ -9286,19 +9274,15 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Z131" t="b">
         <v>0</v>
@@ -9310,17 +9294,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>done</t>
@@ -9380,7 +9368,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -9590,17 +9578,21 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>done</t>
@@ -9608,27 +9600,27 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -9644,11 +9636,11 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Z136" t="b">
         <v>0</v>
@@ -9660,7 +9652,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9734,7 +9726,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -9808,7 +9800,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9820,7 +9812,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9830,29 +9822,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -9866,11 +9854,11 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="Z139" t="b">
         <v>0</v>
@@ -9882,7 +9870,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -9952,7 +9940,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -10022,17 +10010,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>done</t>
@@ -10040,15 +10032,19 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -10060,15 +10056,19 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z142" t="b">
         <v>0</v>
@@ -10080,21 +10080,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>done</t>
@@ -10102,19 +10098,15 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -10125,20 +10117,16 @@
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z143" t="b">
         <v>0</v>
@@ -10150,7 +10138,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -10220,7 +10208,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10290,21 +10278,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>done</t>
@@ -10312,15 +10300,19 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -10336,11 +10328,11 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Z146" t="b">
         <v>0</v>
@@ -10414,17 +10406,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>done</t>
@@ -10534,17 +10530,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>the US</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>done</t>
@@ -10552,19 +10552,15 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10580,11 +10576,11 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Z150" t="b">
         <v>0</v>
@@ -10596,12 +10592,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -10614,19 +10610,15 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10642,11 +10634,11 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Z151" t="b">
         <v>0</v>
@@ -10658,19 +10650,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Crook, Deschutes, Jefferson county</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
@@ -10720,20 +10708,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
@@ -10742,15 +10730,19 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -10766,11 +10758,11 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Z153" t="b">
         <v>0</v>
@@ -10782,12 +10774,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -10800,11 +10792,19 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -10820,11 +10820,11 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z154" t="b">
         <v>0</v>
@@ -10836,20 +10836,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
@@ -10858,14 +10854,10 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
@@ -10882,11 +10874,11 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z155" t="b">
         <v>0</v>
@@ -10898,16 +10890,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
@@ -10916,12 +10912,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -10940,11 +10936,11 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z156" t="b">
         <v>0</v>
@@ -10956,12 +10952,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -10974,20 +10970,24 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
@@ -11002,11 +11002,11 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Z157" t="b">
         <v>0</v>
@@ -11018,20 +11018,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
@@ -11084,19 +11080,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
@@ -11106,7 +11098,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11116,14 +11108,10 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
@@ -11138,11 +11126,11 @@
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y159" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Z159" t="b">
         <v>0</v>
@@ -11154,7 +11142,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -11224,7 +11212,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -11294,7 +11282,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -11364,15 +11352,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>What is the number of election votes for each precinct in Dallas</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
@@ -11387,12 +11379,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11414,11 +11406,11 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z163" t="b">
         <v>0</v>
@@ -11430,12 +11422,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>What is the number of high school students for each senior high school district in Oleander</t>
+          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -11496,17 +11488,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Banten province</t>
+          <t>Tarrant County</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -11566,17 +11558,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>the Metro Vancouver region</t>
+          <t>Banten province</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -11603,7 +11595,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L166" t="inlineStr"/>
@@ -11620,11 +11612,11 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y166" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z166" t="b">
         <v>0</v>
@@ -11636,15 +11628,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>What is the point density of fire calls in Oleander</t>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>the Metro Vancouver region</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
@@ -11772,19 +11768,23 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>What is the total area of agriculture in Netherlands</t>
+          <t>What is the population for each city in Aichi prefecture in Japan</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Aichi prefecture</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japan</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>agriculture=*, landuse=argiculture</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11797,21 +11797,9 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
@@ -11826,11 +11814,11 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data editing,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y169" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z169" t="b">
         <v>0</v>
@@ -11842,12 +11830,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Poway</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -11860,34 +11848,18 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
@@ -11900,11 +11872,11 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y170" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Z170" t="b">
         <v>0</v>
@@ -11916,21 +11888,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>April 2011</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
           <t>done</t>
@@ -11938,24 +11910,16 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
@@ -11970,11 +11934,11 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y171" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Z171" t="b">
         <v>0</v>
@@ -11986,21 +11950,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Poway</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>shop=alcohol, leisure=park</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
           <t>done</t>
@@ -12013,21 +11973,29 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
@@ -12040,11 +12008,11 @@
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y172" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Z172" t="b">
         <v>0</v>
@@ -12056,19 +12024,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -12083,15 +12051,19 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
@@ -12106,11 +12078,11 @@
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y173" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z173" t="b">
         <v>0</v>
@@ -12122,23 +12094,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -12151,16 +12119,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -12176,11 +12136,11 @@
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y174" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z174" t="b">
         <v>0</v>
@@ -12192,17 +12152,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
           <t>done</t>
@@ -12215,7 +12179,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -12234,19 +12198,15 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr">
-        <is>
-          <t>어디선 polygon, 어디선 linestring</t>
-        </is>
-      </c>
+      <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y175" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z175" t="b">
         <v>0</v>
@@ -12258,19 +12218,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
@@ -12280,15 +12236,19 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -12300,15 +12260,19 @@
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>어디선 polygon, 어디선 linestring</t>
+        </is>
+      </c>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y176" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z176" t="b">
         <v>0</v>
@@ -12320,21 +12284,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
           <t>done</t>
@@ -12342,19 +12306,15 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -12370,11 +12330,11 @@
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y177" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z177" t="b">
         <v>0</v>
@@ -12386,19 +12346,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>site=piste</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -12452,7 +12412,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -12464,7 +12424,7 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -12474,15 +12434,19 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -12494,15 +12458,19 @@
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
+        </is>
+      </c>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y179" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z179" t="b">
         <v>0</v>
@@ -12514,19 +12482,23 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -12541,24 +12513,16 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -12572,11 +12536,11 @@
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y180" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Z180" t="b">
         <v>0</v>
@@ -12588,19 +12552,19 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -12615,7 +12579,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12638,11 +12602,11 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y181" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z181" t="b">
         <v>0</v>
@@ -12654,19 +12618,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -12720,19 +12684,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -12752,25 +12716,29 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
@@ -12782,11 +12750,11 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y183" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z183" t="b">
         <v>0</v>
@@ -12798,19 +12766,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -12823,11 +12791,31 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
@@ -12840,11 +12828,11 @@
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y184" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z184" t="b">
         <v>0</v>
@@ -12856,19 +12844,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -12883,21 +12871,29 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
@@ -12910,11 +12906,11 @@
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y185" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Z185" t="b">
         <v>0</v>
@@ -12926,19 +12922,19 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>opening_hours=*</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12984,19 +12980,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Hillsboro</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>abandoned:*=*, highway=motorway</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -13011,15 +13007,19 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
@@ -13034,11 +13034,11 @@
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y187" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z187" t="b">
         <v>0</v>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">

--- a/textToOps/data/input/train_test_raw.xlsx
+++ b/textToOps/data/input/train_test_raw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z173"/>
+  <dimension ref="A1:Z189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6744,21 +6744,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>the Metro Vancouver region</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>done</t>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6776,19 +6776,15 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -6802,11 +6798,11 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Z97" t="b">
         <v>1</v>
@@ -6818,21 +6814,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What is the point density of fire calls in Oleander</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>done</t>
@@ -6840,7 +6832,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6850,19 +6842,15 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -6876,11 +6864,11 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Z98" t="b">
         <v>1</v>
@@ -6892,21 +6880,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>done</t>
@@ -6914,7 +6898,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6924,19 +6908,15 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -6950,11 +6930,11 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y99" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Z99" t="b">
         <v>1</v>
@@ -6966,19 +6946,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What is the population density in California</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>population</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6988,29 +6968,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7024,11 +7000,11 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Z100" t="b">
         <v>1</v>
@@ -7040,17 +7016,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What is the total area of agriculture in Netherlands</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>agriculture=*, landuse=argiculture</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>done</t>
@@ -7058,29 +7038,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7094,11 +7070,11 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z101" t="b">
         <v>1</v>
@@ -7110,12 +7086,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -7128,29 +7104,25 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7164,11 +7136,11 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z102" t="b">
         <v>1</v>
@@ -7180,19 +7152,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7202,27 +7174,27 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -7238,11 +7210,11 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Z103" t="b">
         <v>1</v>
@@ -7254,17 +7226,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>done</t>
@@ -7272,27 +7248,27 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -7308,11 +7284,11 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Z104" t="b">
         <v>1</v>
@@ -7324,19 +7300,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7346,27 +7322,27 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -7382,11 +7358,11 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Z105" t="b">
         <v>1</v>
@@ -7398,19 +7374,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7420,34 +7396,30 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -7460,11 +7432,11 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Z106" t="b">
         <v>1</v>
@@ -7476,17 +7448,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aeroway=*</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>done</t>
@@ -7517,11 +7493,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
@@ -7534,11 +7506,11 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="b">
         <v>1</v>
@@ -7550,19 +7522,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7595,11 +7567,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
@@ -7612,11 +7580,11 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z108" t="b">
         <v>1</v>
@@ -7628,19 +7596,23 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7673,11 +7645,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
@@ -7690,11 +7658,11 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z109" t="b">
         <v>1</v>
@@ -7706,12 +7674,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -7724,22 +7692,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7747,11 +7715,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
@@ -7764,11 +7728,11 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z110" t="b">
         <v>1</v>
@@ -7780,12 +7744,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -7798,22 +7762,22 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7821,11 +7785,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -7838,11 +7798,11 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z111" t="b">
         <v>1</v>
@@ -7854,12 +7814,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -7872,12 +7832,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7887,24 +7847,16 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
@@ -7912,19 +7864,15 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Z112" t="b">
         <v>1</v>
@@ -7936,12 +7884,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -7954,12 +7902,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7969,24 +7917,16 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -7994,19 +7934,15 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Z113" t="b">
         <v>1</v>
@@ -8018,12 +7954,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -8036,12 +7972,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8051,24 +7987,16 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -8076,19 +8004,15 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Z114" t="b">
         <v>1</v>
@@ -8100,17 +8024,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>done</t>
@@ -8118,12 +8046,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8133,24 +8061,16 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
@@ -8158,19 +8078,15 @@
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Z115" t="b">
         <v>1</v>
@@ -8182,21 +8098,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>building=*, highway=*</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
           <t>done</t>
@@ -8204,22 +8116,22 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8227,11 +8139,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -8244,14 +8152,14 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -8260,23 +8168,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>amenity=doctor</t>
+          <t>monitoring:weather=yes</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8286,21 +8190,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -8314,14 +8226,14 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Z117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8330,17 +8242,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>done</t>
@@ -8353,13 +8269,29 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
@@ -8372,14 +8304,14 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Z118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8388,12 +8320,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -8411,13 +8343,29 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
@@ -8430,14 +8378,14 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Z119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -8446,19 +8394,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8473,17 +8421,29 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
@@ -8496,14 +8456,14 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -8512,19 +8472,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8539,17 +8499,29 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
@@ -8562,14 +8534,14 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -8578,25 +8550,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
-        </is>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
           <t>done</t>
@@ -8609,17 +8573,29 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
@@ -8632,14 +8608,14 @@
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -8648,7 +8624,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8658,11 +8634,7 @@
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>leisure=amusement_arcade</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>done</t>
@@ -8675,17 +8647,29 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
@@ -8698,14 +8682,14 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -8714,21 +8698,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
           <t>done</t>
@@ -8741,18 +8721,34 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
@@ -8762,20 +8758,20 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>major가 무엇인지</t>
+          <t>어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="Z124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -8784,7 +8780,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8794,11 +8790,7 @@
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>leisure=playground</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
           <t>done</t>
@@ -8811,18 +8803,34 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
@@ -8830,18 +8838,22 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="Z125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -8850,7 +8862,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8923,7 +8935,7 @@
         <v>53</v>
       </c>
       <c r="Z126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -8932,21 +8944,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>amenity=university</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>done</t>
@@ -8959,18 +8967,34 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
@@ -8978,18 +9002,22 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="Z127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -8998,19 +9026,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9025,17 +9053,29 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
@@ -9048,11 +9088,11 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z128" t="b">
         <v>0</v>
@@ -9064,23 +9104,23 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
+          <t>Saskatchewan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -9134,19 +9174,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
@@ -9156,24 +9192,16 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
@@ -9184,19 +9212,15 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Z130" t="b">
         <v>0</v>
@@ -9208,19 +9232,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
@@ -9230,24 +9250,16 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
@@ -9258,19 +9270,15 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
-        </is>
-      </c>
+      <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Z131" t="b">
         <v>0</v>
@@ -9282,17 +9290,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>done</t>
@@ -9300,29 +9312,21 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -9336,11 +9340,11 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="Z132" t="b">
         <v>0</v>
@@ -9352,17 +9356,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>waterway=river</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>done</t>
@@ -9370,29 +9378,21 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -9406,11 +9406,11 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="Z133" t="b">
         <v>0</v>
@@ -9422,19 +9422,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9444,29 +9448,21 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -9480,11 +9476,11 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Z134" t="b">
         <v>0</v>
@@ -9496,19 +9492,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9518,29 +9514,21 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -9554,11 +9542,11 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Z135" t="b">
         <v>0</v>
@@ -9570,19 +9558,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9597,12 +9585,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -9618,17 +9606,17 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>major가 무엇인지</t>
         </is>
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Z136" t="b">
         <v>0</v>
@@ -9640,19 +9628,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9667,16 +9655,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -9686,19 +9682,15 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Z137" t="b">
         <v>0</v>
@@ -9710,19 +9702,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9737,12 +9729,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -9756,19 +9748,15 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Z138" t="b">
         <v>0</v>
@@ -9780,12 +9768,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -9798,27 +9786,39 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
@@ -9826,15 +9826,19 @@
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Z139" t="b">
         <v>0</v>
@@ -9846,19 +9850,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9873,12 +9877,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -9891,20 +9895,16 @@
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z140" t="b">
         <v>0</v>
@@ -9916,19 +9916,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -9966,11 +9966,11 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z141" t="b">
         <v>0</v>
@@ -9982,19 +9982,23 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -10009,10 +10013,14 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -10028,11 +10036,11 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z142" t="b">
         <v>0</v>
@@ -10044,21 +10052,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>landuse=recreation_ground</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>done</t>
@@ -10066,16 +10074,24 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -10086,15 +10102,19 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z143" t="b">
         <v>0</v>
@@ -10106,21 +10126,21 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
           <t>done</t>
@@ -10128,16 +10148,24 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -10148,15 +10176,19 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y144" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z144" t="b">
         <v>0</v>
@@ -10168,12 +10200,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -10186,17 +10218,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -10210,11 +10254,11 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="Z145" t="b">
         <v>0</v>
@@ -10226,12 +10270,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -10244,21 +10288,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -10272,11 +10324,11 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z146" t="b">
         <v>0</v>
@@ -10288,12 +10340,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -10306,21 +10358,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -10334,11 +10394,11 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y147" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Z147" t="b">
         <v>0</v>
@@ -10350,19 +10410,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -10372,13 +10432,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -10392,11 +10468,11 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y148" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Z148" t="b">
         <v>0</v>
@@ -10408,17 +10484,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr">
         <is>
           <t>done</t>
@@ -10426,13 +10506,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -10446,11 +10542,11 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y149" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Z149" t="b">
         <v>0</v>
@@ -10462,17 +10558,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>done</t>
@@ -10480,15 +10580,19 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10500,15 +10604,19 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z150" t="b">
         <v>0</v>
@@ -10520,21 +10628,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
           <t>done</t>
@@ -10542,15 +10650,19 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10562,15 +10674,19 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z151" t="b">
         <v>0</v>
@@ -10582,21 +10698,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>done</t>
@@ -10614,7 +10730,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -10628,15 +10744,19 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y152" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z152" t="b">
         <v>0</v>
@@ -10648,12 +10768,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -10666,7 +10786,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10676,10 +10796,14 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
@@ -10694,11 +10818,11 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Z153" t="b">
         <v>0</v>
@@ -10710,21 +10834,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr">
         <is>
           <t>done</t>
@@ -10732,24 +10856,20 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
@@ -10759,16 +10879,20 @@
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Z154" t="b">
         <v>0</v>
@@ -10780,21 +10904,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr">
         <is>
           <t>done</t>
@@ -10802,24 +10926,20 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
@@ -10834,11 +10954,11 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Z155" t="b">
         <v>0</v>
@@ -10850,17 +10970,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>What is the number of arson cases in Fort Worth on February 2004</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Fort Worth on February 2004</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
           <t>done</t>
@@ -10868,12 +10992,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -10892,11 +11016,11 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z156" t="b">
         <v>0</v>
@@ -10908,17 +11032,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>done</t>
@@ -10931,14 +11059,10 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -10954,11 +11078,11 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Z157" t="b">
         <v>0</v>
@@ -10970,21 +11094,21 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr">
         <is>
           <t>done</t>
@@ -10992,24 +11116,16 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
@@ -11024,11 +11140,11 @@
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y158" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Z158" t="b">
         <v>0</v>
@@ -11040,12 +11156,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>What is the number of households for each precinct in Dallas County</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Dallas County</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -11058,24 +11174,16 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
@@ -11090,11 +11198,11 @@
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>data editing,data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y159" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Z159" t="b">
         <v>0</v>
@@ -11106,12 +11214,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>California</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -11124,11 +11232,19 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -11144,11 +11260,11 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y160" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z160" t="b">
         <v>0</v>
@@ -11160,25 +11276,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>What is the total population for each census block in Tarrant County, Texas</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t>done</t>
@@ -11186,7 +11294,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11194,7 +11302,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
@@ -11210,11 +11322,11 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data editing,data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y161" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z161" t="b">
         <v>0</v>
@@ -11226,17 +11338,21 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Poway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr">
         <is>
           <t>done</t>
@@ -11247,31 +11363,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -11284,11 +11380,11 @@
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y162" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z162" t="b">
         <v>0</v>
@@ -11300,21 +11396,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>done</t>
@@ -11325,21 +11417,9 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
@@ -11354,11 +11434,11 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z163" t="b">
         <v>0</v>
@@ -11370,21 +11450,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
           <t>done</t>
@@ -11392,24 +11468,16 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
@@ -11424,11 +11492,11 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y164" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Z164" t="b">
         <v>0</v>
@@ -11440,21 +11508,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
           <t>done</t>
@@ -11462,19 +11530,15 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -11490,11 +11554,11 @@
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y165" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z165" t="b">
         <v>0</v>
@@ -11506,21 +11570,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the mean center of crimes in Amsterdam in 2019</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
           <t>done</t>
@@ -11528,20 +11592,24 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
@@ -11552,19 +11620,15 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr">
-        <is>
-          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
-        </is>
-      </c>
+      <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data editing,data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y166" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z166" t="b">
         <v>0</v>
@@ -11576,16 +11640,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
@@ -11599,12 +11667,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -11622,11 +11690,11 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y167" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z167" t="b">
         <v>0</v>
@@ -11638,21 +11706,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
           <t>done</t>
@@ -11665,12 +11729,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -11688,11 +11752,11 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y168" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z168" t="b">
         <v>0</v>
@@ -11704,21 +11768,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
           <t>done</t>
@@ -11726,39 +11790,27 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -11770,11 +11822,11 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y169" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Z169" t="b">
         <v>0</v>
@@ -11786,21 +11838,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
           <t>done</t>
@@ -11808,12 +11860,24 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
@@ -11828,11 +11892,11 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y170" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z170" t="b">
         <v>0</v>
@@ -11844,21 +11908,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What is the number of arson cases in Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Fort Worth on February 2004</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
           <t>done</t>
@@ -11866,34 +11926,18 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
@@ -11906,11 +11950,11 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y171" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Z171" t="b">
         <v>0</v>
@@ -11922,21 +11966,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
           <t>done</t>
@@ -11949,7 +11989,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11972,11 +12012,11 @@
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y172" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z172" t="b">
         <v>0</v>
@@ -11988,21 +12028,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
           <t>done</t>
@@ -12010,20 +12050,24 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
@@ -12038,13 +12082,1097 @@
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr">
         <is>
+          <t>data editing,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y173" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>What is the number of households for each precinct in Dallas County</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Dallas County</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>data editing,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y174" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>What is the point density of trees in parks in Oleander</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>natural=tree</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y176" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>What is the total population for each census block in Tarrant County, Texas</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y177" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Poway</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y178" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y179" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y180" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Where are the commercial areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>landuse=commercial</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y181" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Where are the fire stations in Utrecht</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://wiki.openstreetmap.org/wiki/SPARQL_examples</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y182" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y183" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y184" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y185" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y187" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="Y173" t="n">
+      <c r="Y188" t="n">
         <v>13</v>
       </c>
-      <c r="Z173" t="b">
+      <c r="Z188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y189" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z189" t="b">
         <v>0</v>
       </c>
     </row>
